--- a/Datos/Resultados_Ejercicio4.xlsx
+++ b/Datos/Resultados_Ejercicio4.xlsx
@@ -1,37 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upm365-my.sharepoint.com/personal/ismael_diaz_upm_es/Documents/UPM/_Integracion de Procesos/2023-2024/IntegracionMUIQ/Datos/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_94894279630F2531592C4CF8FD2A206052AC9E2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{356C260E-7DCF-41FA-B239-DCF9B96978D1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Results_Q" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Results_Q!$A$1:$B$166</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -539,8 +517,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,18 +534,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFD60093"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -577,7 +543,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -600,63 +566,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,21 +581,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -716,7 +625,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -750,7 +659,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -785,10 +693,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -961,25 +868,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:W180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T168" sqref="T168:T171"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -987,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -995,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1003,7 +904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1011,7 +912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1019,7 +920,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1027,7 +928,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +936,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1043,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1051,7 +952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1067,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1075,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,15 +984,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-3.4106051316484799E-13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+        <v>-3.41060513164848E-13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -1099,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1107,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1123,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1131,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1139,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1147,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -1155,7 +1056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1163,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1171,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1179,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1187,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -1195,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -1203,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -1211,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1219,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1227,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -1235,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -1243,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -1251,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -1259,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1267,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1275,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1283,7 +1184,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1291,7 +1192,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1299,7 +1200,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1307,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1315,7 +1216,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1323,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1331,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1339,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1347,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -1355,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -1363,7 +1264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -1371,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -1379,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -1387,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -1395,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -1403,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -1411,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -1419,7 +1320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -1427,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -1435,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -1443,7 +1344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -1451,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -1459,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -1467,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -1475,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -1483,7 +1384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -1491,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -1499,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -1507,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -1515,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -1523,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -1531,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -1539,7 +1440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -1547,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -1555,7 +1456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -1563,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -1571,7 +1472,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -1579,7 +1480,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -1587,7 +1488,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -1595,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -1603,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -1611,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -1619,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -1627,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -1635,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -1643,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -1651,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -1659,7 +1560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -1667,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -1675,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -1683,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -1691,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -1699,7 +1600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -1707,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -1715,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -1723,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -1731,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -1739,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -1747,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -1755,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -1763,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -1771,7 +1672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -1779,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -1787,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -1795,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -1803,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -1811,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -1819,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -1827,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -1835,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -1843,7 +1744,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -1851,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -1859,7 +1760,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -1867,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -1875,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -1883,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -1891,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -1899,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -1907,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -1915,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -1923,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -1931,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -1939,7 +1840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -1947,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
@@ -1955,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -1963,7 +1864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -1971,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -1979,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -1987,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -1995,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -2003,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -2011,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -2019,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -2027,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -2035,7 +1936,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -2043,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
@@ -2051,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -2059,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -2067,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -2075,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -2083,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -2091,7 +1992,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -2099,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -2107,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -2115,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -2123,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -2131,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -2139,7 +2040,7 @@
         <v>1828.597</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -2147,51 +2048,39 @@
         <v>1828.597</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B148">
         <v>29.977</v>
       </c>
-      <c r="T148" s="4">
-        <v>1828.597</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B149">
-        <v>809.37900000000002</v>
-      </c>
-      <c r="T149" s="4">
-        <v>1828.597</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>809.379</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
-      <c r="T150" s="4">
-        <v>29.977</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
-      <c r="T151" s="5">
-        <v>809.37900000000002</v>
-      </c>
-    </row>
-    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -2199,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -2207,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -2215,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -2223,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -2231,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
@@ -2239,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -2247,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -2255,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -2263,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
@@ -2271,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -2279,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -2287,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -2295,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -2303,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
@@ -2311,135 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T168" s="4">
-        <v>1828.597</v>
-      </c>
-    </row>
-    <row r="169" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="T169" s="4">
-        <v>1828.597</v>
-      </c>
-    </row>
-    <row r="170" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K170">
-        <f>30+665/25</f>
-        <v>56.6</v>
-      </c>
-      <c r="P170">
-        <f>113+760/25</f>
-        <v>143.4</v>
-      </c>
-      <c r="T170" s="4">
-        <v>29.977</v>
-      </c>
-    </row>
-    <row r="171" spans="1:23" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K171">
-        <f>+K170+880/25</f>
-        <v>91.800000000000011</v>
-      </c>
-      <c r="T171" s="5">
-        <v>809.37900000000002</v>
-      </c>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="K172">
-        <f>+K171+530/25</f>
-        <v>113.00000000000001</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="R173">
-        <f>148+83</f>
-        <v>231</v>
-      </c>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="M175">
-        <f>60+53</f>
-        <v>113</v>
-      </c>
-      <c r="V175">
-        <f>+P170+1030/25</f>
-        <v>184.60000000000002</v>
-      </c>
-      <c r="W175">
-        <f>+V175+135/25</f>
-        <v>190.00000000000003</v>
-      </c>
-    </row>
-    <row r="176" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P176">
-        <f>30+530/25</f>
-        <v>51.2</v>
-      </c>
-      <c r="R176">
-        <f>189-76</f>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="177" spans="14:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="P177">
-        <f>+P176+665/25</f>
-        <v>77.800000000000011</v>
-      </c>
-      <c r="U177" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="178" spans="14:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="N178">
-        <f>40+1195/30</f>
-        <v>79.833333333333343</v>
-      </c>
-      <c r="P178">
-        <f>+P177+880/25</f>
-        <v>113.00000000000001</v>
-      </c>
-      <c r="U178" s="3">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="179" spans="14:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="N179">
-        <f>+N178+665/30</f>
-        <v>102.00000000000001</v>
-      </c>
-      <c r="U179" s="3">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="180" spans="14:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="U180" s="3">
-        <v>390</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B166" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="105"/>
-        <filter val="1195"/>
-        <filter val="135"/>
-        <filter val="140"/>
-        <filter val="1828,597"/>
-        <filter val="210"/>
-        <filter val="25"/>
-        <filter val="250"/>
-        <filter val="270"/>
-        <filter val="275"/>
-        <filter val="29,977"/>
-        <filter val="350"/>
-        <filter val="390"/>
-        <filter val="405"/>
-        <filter val="415"/>
-        <filter val="500"/>
-        <filter val="530"/>
-        <filter val="809,379"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datos/Resultados_Ejercicio4.xlsx
+++ b/Datos/Resultados_Ejercicio4.xlsx
@@ -989,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>-3.41060513164848E-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
